--- a/sim_output/results.xlsx
+++ b/sim_output/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\papep\Documents\GitHub\597-GA-research\sim_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/preston/Documents/GitHub/597-GA-research/sim_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC1632E-54D1-4C25-B9EE-F44CF87EBEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0410951-221D-034D-AED4-63916A6819C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26250" yWindow="780" windowWidth="23175" windowHeight="19710" xr2:uid="{536C6DF4-E3D5-4E84-B7C7-6B0F1396648C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{536C6DF4-E3D5-4E84-B7C7-6B0F1396648C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -257,11 +257,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,17 +303,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,494 +639,494 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>4.0529999999999999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>32.798000000000002</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1.923</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>14.295</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>62.715000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>4.2839999999999998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>32.487000000000002</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.923</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>14.295</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>62.634</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>AVERAGE(C3:C4)</f>
         <v>4.1684999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:H5" si="0">AVERAGE(D3:D4)</f>
         <v>32.642499999999998</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="3">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>62.674500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>6.5529999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>28.806000000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1.923</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>14.295</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>61.222000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>8.76</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>26.568999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1.923</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>14.295</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>61.192</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>AVERAGE(C6:C7)</f>
         <v>7.6564999999999994</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>AVERAGE(D6:D7)</f>
         <v>27.6875</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="2">
         <f>AVERAGE(H6:H7)</f>
         <v>61.207000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>4.6539999999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>33.841000000000001</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1.923</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>14.295</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>64.358000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5.4240000000000004</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>32.472999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1.923</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>14.295</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>63.759</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>AVERAGE(C9:C10)</f>
         <v>5.0389999999999997</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>AVERAGE(D9:D10)</f>
         <v>33.156999999999996</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="3">
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="2">
         <f>AVERAGE(H9:H10)</f>
         <v>64.058500000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f>AVERAGE(C5,C8,C11)</f>
         <v>5.6213333333333324</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>AVERAGE(D5,D8,D11)</f>
         <v>31.162333333333333</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="22">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21">
         <f>AVERAGE(H5,H8,H11)</f>
         <v>62.646666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="21" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>4.1684999999999999</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>32.642499999999998</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>1.923</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>14.295</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>62.674500000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>7.6564999999999994</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>27.6875</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>1.923</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>14.295</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>61.207000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>5.0389999999999997</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>33.156999999999996</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>1.923</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>14.295</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>64.058500000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f>AVERAGE(B12,C18,C21)</f>
         <v>5.0389999999999997</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f>AVERAGE(C12,D18,D21)</f>
         <v>33.156999999999996</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>1.923</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>9.6449999999999996</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>14.295</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>AVERAGE(G12,H18,H21)</f>
         <v>64.058500000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1132,7 +1135,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1141,7 +1144,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1150,7 +1153,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1159,7 +1162,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1168,7 +1171,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1177,7 +1180,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1186,7 +1189,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1195,7 +1198,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1204,7 +1207,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1213,7 +1216,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1222,7 +1225,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1231,7 +1234,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
